--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Angpt1-Tie1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Angpt1-Tie1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Angpt1</t>
+  </si>
+  <si>
+    <t>Tie1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Angpt1</t>
-  </si>
-  <si>
-    <t>Tie1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07171233333333334</v>
+        <v>11.05178533333333</v>
       </c>
       <c r="H2">
-        <v>0.215137</v>
+        <v>33.155356</v>
       </c>
       <c r="I2">
-        <v>0.004947717871829782</v>
+        <v>0.9017494976312432</v>
       </c>
       <c r="J2">
-        <v>0.004947717871829782</v>
+        <v>0.9017494976312432</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>56.675789</v>
+        <v>55.42213566666666</v>
       </c>
       <c r="N2">
-        <v>170.027367</v>
+        <v>166.266407</v>
       </c>
       <c r="O2">
-        <v>0.9913215893304136</v>
+        <v>0.9848186220994556</v>
       </c>
       <c r="P2">
-        <v>0.9913215893304136</v>
+        <v>0.9848186220994556</v>
       </c>
       <c r="Q2">
-        <v>4.064353072697667</v>
+        <v>612.5135461028768</v>
       </c>
       <c r="R2">
-        <v>36.579177654279</v>
+        <v>5512.621914925891</v>
       </c>
       <c r="S2">
-        <v>0.004904779544260791</v>
+        <v>0.8880596977360773</v>
       </c>
       <c r="T2">
-        <v>0.004904779544260791</v>
+        <v>0.8880596977360773</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07171233333333334</v>
+        <v>11.05178533333333</v>
       </c>
       <c r="H3">
-        <v>0.215137</v>
+        <v>33.155356</v>
       </c>
       <c r="I3">
-        <v>0.004947717871829782</v>
+        <v>0.9017494976312432</v>
       </c>
       <c r="J3">
-        <v>0.004947717871829782</v>
+        <v>0.9017494976312432</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.402002</v>
       </c>
       <c r="O3">
-        <v>0.002343818342808337</v>
+        <v>0.00238111271461604</v>
       </c>
       <c r="P3">
-        <v>0.002343818342808337</v>
+        <v>0.00238111271461604</v>
       </c>
       <c r="Q3">
-        <v>0.009609500474888889</v>
+        <v>1.480946602523555</v>
       </c>
       <c r="R3">
-        <v>0.08648550427399999</v>
+        <v>13.328519422712</v>
       </c>
       <c r="S3">
-        <v>1.159655190303527E-05</v>
+        <v>0.00214716719420838</v>
       </c>
       <c r="T3">
-        <v>1.159655190303527E-05</v>
+        <v>0.00214716719420838</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07171233333333334</v>
+        <v>11.05178533333333</v>
       </c>
       <c r="H4">
-        <v>0.215137</v>
+        <v>33.155356</v>
       </c>
       <c r="I4">
-        <v>0.004947717871829782</v>
+        <v>0.9017494976312432</v>
       </c>
       <c r="J4">
-        <v>0.004947717871829782</v>
+        <v>0.9017494976312432</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.362161</v>
+        <v>0.720354</v>
       </c>
       <c r="N4">
-        <v>1.086483</v>
+        <v>2.161062</v>
       </c>
       <c r="O4">
-        <v>0.006334592326778051</v>
+        <v>0.01280026518592835</v>
       </c>
       <c r="P4">
-        <v>0.006334592326778052</v>
+        <v>0.01280026518592835</v>
       </c>
       <c r="Q4">
-        <v>0.02597141035233333</v>
+        <v>7.961197772008</v>
       </c>
       <c r="R4">
-        <v>0.233742693171</v>
+        <v>71.650779948072</v>
       </c>
       <c r="S4">
-        <v>3.134177566595556E-05</v>
+        <v>0.01154263270095758</v>
       </c>
       <c r="T4">
-        <v>3.134177566595557E-05</v>
+        <v>0.01154263270095758</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.05178533333333</v>
+        <v>1.204152</v>
       </c>
       <c r="H5">
-        <v>33.155356</v>
+        <v>3.612456</v>
       </c>
       <c r="I5">
-        <v>0.7625064374239614</v>
+        <v>0.09825050236875665</v>
       </c>
       <c r="J5">
-        <v>0.7625064374239614</v>
+        <v>0.09825050236875667</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>56.675789</v>
+        <v>55.42213566666666</v>
       </c>
       <c r="N5">
-        <v>170.027367</v>
+        <v>166.266407</v>
       </c>
       <c r="O5">
-        <v>0.9913215893304136</v>
+        <v>0.9848186220994556</v>
       </c>
       <c r="P5">
-        <v>0.9913215893304136</v>
+        <v>0.9848186220994556</v>
       </c>
       <c r="Q5">
-        <v>626.3686536252947</v>
+        <v>66.73667550728798</v>
       </c>
       <c r="R5">
-        <v>5637.317882627652</v>
+        <v>600.6300795655919</v>
       </c>
       <c r="S5">
-        <v>0.755889093421793</v>
+        <v>0.09675892436337823</v>
       </c>
       <c r="T5">
-        <v>0.755889093421793</v>
+        <v>0.09675892436337824</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.05178533333333</v>
+        <v>1.204152</v>
       </c>
       <c r="H6">
-        <v>33.155356</v>
+        <v>3.612456</v>
       </c>
       <c r="I6">
-        <v>0.7625064374239614</v>
+        <v>0.09825050236875665</v>
       </c>
       <c r="J6">
-        <v>0.7625064374239614</v>
+        <v>0.09825050236875667</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +806,22 @@
         <v>0.402002</v>
       </c>
       <c r="O6">
-        <v>0.002343818342808337</v>
+        <v>0.00238111271461604</v>
       </c>
       <c r="P6">
-        <v>0.002343818342808337</v>
+        <v>0.00238111271461604</v>
       </c>
       <c r="Q6">
-        <v>1.480946602523555</v>
+        <v>0.161357170768</v>
       </c>
       <c r="R6">
-        <v>13.328519422712</v>
+        <v>1.452214536912</v>
       </c>
       <c r="S6">
-        <v>0.001787176574543718</v>
+        <v>0.0002339455204076598</v>
       </c>
       <c r="T6">
-        <v>0.001787176574543718</v>
+        <v>0.0002339455204076598</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,232 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.05178533333333</v>
+        <v>1.204152</v>
       </c>
       <c r="H7">
-        <v>33.155356</v>
+        <v>3.612456</v>
       </c>
       <c r="I7">
-        <v>0.7625064374239614</v>
+        <v>0.09825050236875665</v>
       </c>
       <c r="J7">
-        <v>0.7625064374239614</v>
+        <v>0.09825050236875667</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.362161</v>
+        <v>0.720354</v>
       </c>
       <c r="N7">
-        <v>1.086483</v>
+        <v>2.161062</v>
       </c>
       <c r="O7">
-        <v>0.006334592326778051</v>
+        <v>0.01280026518592835</v>
       </c>
       <c r="P7">
-        <v>0.006334592326778052</v>
+        <v>0.01280026518592835</v>
       </c>
       <c r="Q7">
-        <v>4.002525628105333</v>
+        <v>0.867415709808</v>
       </c>
       <c r="R7">
-        <v>36.02273065294799</v>
+        <v>7.806741388272001</v>
       </c>
       <c r="S7">
-        <v>0.004830167427624694</v>
+        <v>0.001257632484970767</v>
       </c>
       <c r="T7">
-        <v>0.004830167427624694</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3.370524666666667</v>
-      </c>
-      <c r="H8">
-        <v>10.111574</v>
-      </c>
-      <c r="I8">
-        <v>0.2325458447042087</v>
-      </c>
-      <c r="J8">
-        <v>0.2325458447042088</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>56.675789</v>
-      </c>
-      <c r="N8">
-        <v>170.027367</v>
-      </c>
-      <c r="O8">
-        <v>0.9913215893304136</v>
-      </c>
-      <c r="P8">
-        <v>0.9913215893304136</v>
-      </c>
-      <c r="Q8">
-        <v>191.0271448272954</v>
-      </c>
-      <c r="R8">
-        <v>1719.244303445658</v>
-      </c>
-      <c r="S8">
-        <v>0.2305277163643598</v>
-      </c>
-      <c r="T8">
-        <v>0.2305277163643598</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.370524666666667</v>
-      </c>
-      <c r="H9">
-        <v>10.111574</v>
-      </c>
-      <c r="I9">
-        <v>0.2325458447042087</v>
-      </c>
-      <c r="J9">
-        <v>0.2325458447042088</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.1340006666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.402002</v>
-      </c>
-      <c r="O9">
-        <v>0.002343818342808337</v>
-      </c>
-      <c r="P9">
-        <v>0.002343818342808337</v>
-      </c>
-      <c r="Q9">
-        <v>0.4516525523497777</v>
-      </c>
-      <c r="R9">
-        <v>4.064872971148001</v>
-      </c>
-      <c r="S9">
-        <v>0.0005450452163615835</v>
-      </c>
-      <c r="T9">
-        <v>0.0005450452163615835</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3.370524666666667</v>
-      </c>
-      <c r="H10">
-        <v>10.111574</v>
-      </c>
-      <c r="I10">
-        <v>0.2325458447042087</v>
-      </c>
-      <c r="J10">
-        <v>0.2325458447042088</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.362161</v>
-      </c>
-      <c r="N10">
-        <v>1.086483</v>
-      </c>
-      <c r="O10">
-        <v>0.006334592326778051</v>
-      </c>
-      <c r="P10">
-        <v>0.006334592326778052</v>
-      </c>
-      <c r="Q10">
-        <v>1.220672583804667</v>
-      </c>
-      <c r="R10">
-        <v>10.986053254242</v>
-      </c>
-      <c r="S10">
-        <v>0.001473083123487401</v>
-      </c>
-      <c r="T10">
-        <v>0.001473083123487401</v>
+        <v>0.001257632484970767</v>
       </c>
     </row>
   </sheetData>
